--- a/Repositorio Agricultura/Para power bi/Categoría-Especie.xlsx
+++ b/Repositorio Agricultura/Para power bi/Categoría-Especie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF734A-38AD-4AB2-992F-310CFD605E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233873BF-B4D4-4374-8C65-625FEAAF133A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{414B5265-9344-4A73-9B4E-1EB725646290}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="238">
   <si>
     <t>Tropicales y subtropicales</t>
   </si>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5E28C3-EA76-4080-AF4E-19AE1D68A723}">
   <dimension ref="A2:S154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2663,11 +2663,16 @@
       <c r="H36" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="J36" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K36" s="3"/>
+      <c r="K36" s="3" t="str">
+        <f t="shared" ref="K36:K99" si="0">+G36&amp;"-"&amp;I36</f>
+        <v>02-01-00</v>
+      </c>
       <c r="L36" s="3" t="s">
         <v>153</v>
       </c>
@@ -2690,11 +2695,16 @@
       <c r="H37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K37" s="3"/>
+      <c r="K37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-02-01</v>
+      </c>
       <c r="L37" s="3" t="s">
         <v>55</v>
       </c>
@@ -2717,11 +2727,16 @@
       <c r="H38" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="J38" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K38" s="3"/>
+      <c r="K38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-03-02</v>
+      </c>
       <c r="L38" s="3" t="s">
         <v>31</v>
       </c>
@@ -2744,11 +2759,16 @@
       <c r="H39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="J39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K39" s="3"/>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-04-03</v>
+      </c>
       <c r="L39" s="3" t="s">
         <v>113</v>
       </c>
@@ -2775,7 +2795,10 @@
       <c r="J40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K40" s="3"/>
+      <c r="K40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-04-</v>
+      </c>
       <c r="L40" s="3" t="s">
         <v>7</v>
       </c>
@@ -2802,7 +2825,10 @@
       <c r="J41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-04-</v>
+      </c>
       <c r="L41" s="3" t="s">
         <v>140</v>
       </c>
@@ -2829,7 +2855,10 @@
       <c r="J42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K42" s="3"/>
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-05-</v>
+      </c>
       <c r="L42" s="3" t="s">
         <v>114</v>
       </c>
@@ -2856,7 +2885,10 @@
       <c r="J43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K43" s="3"/>
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-05-</v>
+      </c>
       <c r="L43" s="3" t="s">
         <v>141</v>
       </c>
@@ -2883,7 +2915,10 @@
       <c r="J44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K44" s="3"/>
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-05-</v>
+      </c>
       <c r="L44" s="3" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2945,10 @@
       <c r="J45" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K45" s="3"/>
+      <c r="K45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-06-</v>
+      </c>
       <c r="L45" s="3" t="s">
         <v>115</v>
       </c>
@@ -2937,7 +2975,10 @@
       <c r="J46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K46" s="3"/>
+      <c r="K46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-06-</v>
+      </c>
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2964,7 +3005,10 @@
       <c r="J47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K47" s="3"/>
+      <c r="K47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-07-</v>
+      </c>
       <c r="L47" s="3" t="s">
         <v>132</v>
       </c>
@@ -2991,7 +3035,10 @@
       <c r="J48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="3"/>
+      <c r="K48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-08-</v>
+      </c>
       <c r="L48" s="3" t="s">
         <v>20</v>
       </c>
@@ -3018,7 +3065,10 @@
       <c r="J49" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="K49" s="3"/>
+      <c r="K49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>02-09-</v>
+      </c>
       <c r="L49" s="3" t="s">
         <v>39</v>
       </c>
@@ -3048,7 +3098,7 @@
         <v>119</v>
       </c>
       <c r="K50" s="3" t="str">
-        <f>+G50&amp;"-"&amp;I50</f>
+        <f t="shared" si="0"/>
         <v>05-01-00</v>
       </c>
       <c r="L50" s="3" t="s">
@@ -3080,7 +3130,7 @@
         <v>119</v>
       </c>
       <c r="K51" s="3" t="str">
-        <f>+G51&amp;"-"&amp;I51</f>
+        <f t="shared" si="0"/>
         <v>05-01-00</v>
       </c>
       <c r="L51" s="3" t="s">
@@ -3107,7 +3157,10 @@
       <c r="J52" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K52" s="3"/>
+      <c r="K52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L52" s="3" t="s">
         <v>129</v>
       </c>
@@ -3132,7 +3185,10 @@
       <c r="J53" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K53" s="3"/>
+      <c r="K53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L53" s="3" t="s">
         <v>65</v>
       </c>
@@ -3157,7 +3213,10 @@
       <c r="J54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K54" s="3"/>
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L54" s="3" t="s">
         <v>66</v>
       </c>
@@ -3182,7 +3241,10 @@
       <c r="J55" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K55" s="3"/>
+      <c r="K55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L55" s="3" t="s">
         <v>133</v>
       </c>
@@ -3207,7 +3269,10 @@
       <c r="J56" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K56" s="3"/>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L56" s="3" t="s">
         <v>84</v>
       </c>
@@ -3232,7 +3297,10 @@
       <c r="J57" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K57" s="3"/>
+      <c r="K57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L57" s="3" t="s">
         <v>154</v>
       </c>
@@ -3257,7 +3325,10 @@
       <c r="J58" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K58" s="3"/>
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L58" s="3" t="s">
         <v>150</v>
       </c>
@@ -3282,7 +3353,10 @@
       <c r="J59" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K59" s="3"/>
+      <c r="K59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L59" s="3" t="s">
         <v>43</v>
       </c>
@@ -3307,7 +3381,10 @@
       <c r="J60" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="3"/>
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L60" s="3" t="s">
         <v>144</v>
       </c>
@@ -3332,7 +3409,10 @@
       <c r="J61" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K61" s="3"/>
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L61" s="3" t="s">
         <v>124</v>
       </c>
@@ -3357,7 +3437,10 @@
       <c r="J62" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K62" s="3"/>
+      <c r="K62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L62" s="3" t="s">
         <v>59</v>
       </c>
@@ -3382,7 +3465,10 @@
       <c r="J63" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K63" s="3"/>
+      <c r="K63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L63" s="3" t="s">
         <v>29</v>
       </c>
@@ -3407,7 +3493,10 @@
       <c r="J64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K64" s="3"/>
+      <c r="K64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L64" s="3" t="s">
         <v>127</v>
       </c>
@@ -3432,7 +3521,10 @@
       <c r="J65" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K65" s="3"/>
+      <c r="K65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L65" s="3" t="s">
         <v>116</v>
       </c>
@@ -3457,7 +3549,10 @@
       <c r="J66" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K66" s="3"/>
+      <c r="K66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L66" s="3" t="s">
         <v>145</v>
       </c>
@@ -3482,7 +3577,10 @@
       <c r="J67" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K67" s="3"/>
+      <c r="K67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L67" s="3" t="s">
         <v>11</v>
       </c>
@@ -3507,7 +3605,10 @@
       <c r="J68" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K68" s="3"/>
+      <c r="K68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L68" s="3" t="s">
         <v>38</v>
       </c>
@@ -3532,7 +3633,10 @@
       <c r="J69" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K69" s="3"/>
+      <c r="K69" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>05--</v>
+      </c>
       <c r="L69" s="3" t="s">
         <v>49</v>
       </c>
@@ -3557,7 +3661,10 @@
       <c r="J70" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K70" s="3"/>
+      <c r="K70" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L70" s="3" t="s">
         <v>117</v>
       </c>
@@ -3582,7 +3689,10 @@
       <c r="J71" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K71" s="3"/>
+      <c r="K71" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L71" s="3" t="s">
         <v>138</v>
       </c>
@@ -3607,7 +3717,10 @@
       <c r="J72" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K72" s="3"/>
+      <c r="K72" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L72" s="3" t="s">
         <v>21</v>
       </c>
@@ -3632,7 +3745,10 @@
       <c r="J73" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K73" s="3"/>
+      <c r="K73" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L73" s="3" t="s">
         <v>26</v>
       </c>
@@ -3647,7 +3763,10 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="K74" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
       <c r="L74" s="3" t="s">
         <v>205</v>
       </c>
@@ -3672,7 +3791,10 @@
       <c r="J75" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K75" s="3"/>
+      <c r="K75" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L75" s="3" t="s">
         <v>121</v>
       </c>
@@ -3697,7 +3819,10 @@
       <c r="J76" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K76" s="3"/>
+      <c r="K76" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L76" s="3" t="s">
         <v>52</v>
       </c>
@@ -3722,7 +3847,10 @@
       <c r="J77" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K77" s="3"/>
+      <c r="K77" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L77" s="3" t="s">
         <v>54</v>
       </c>
@@ -3747,7 +3875,10 @@
       <c r="J78" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K78" s="3"/>
+      <c r="K78" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L78" s="3" t="s">
         <v>80</v>
       </c>
@@ -3772,7 +3903,10 @@
       <c r="J79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K79" s="3"/>
+      <c r="K79" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L79" s="3" t="s">
         <v>24</v>
       </c>
@@ -3797,7 +3931,10 @@
       <c r="J80" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K80" s="3"/>
+      <c r="K80" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L80" s="3" t="s">
         <v>45</v>
       </c>
@@ -3822,7 +3959,10 @@
       <c r="J81" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K81" s="3"/>
+      <c r="K81" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L81" s="3" t="s">
         <v>48</v>
       </c>
@@ -3847,7 +3987,10 @@
       <c r="J82" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K82" s="3"/>
+      <c r="K82" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L82" s="3" t="s">
         <v>18</v>
       </c>
@@ -3866,7 +4009,10 @@
       <c r="J83" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K83" s="3"/>
+      <c r="K83" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
       <c r="L83" s="3" t="s">
         <v>198</v>
       </c>
@@ -3881,7 +4027,10 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
       <c r="L84" s="3" t="s">
         <v>204</v>
       </c>
@@ -3906,7 +4055,10 @@
       <c r="J85" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="3"/>
+      <c r="K85" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L85" s="3" t="s">
         <v>139</v>
       </c>
@@ -3921,7 +4073,10 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
       <c r="L86" s="3" t="s">
         <v>201</v>
       </c>
@@ -3946,7 +4101,10 @@
       <c r="J87" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K87" s="3"/>
+      <c r="K87" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L87" s="3" t="s">
         <v>69</v>
       </c>
@@ -3971,7 +4129,10 @@
       <c r="J88" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K88" s="3"/>
+      <c r="K88" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L88" s="3" t="s">
         <v>23</v>
       </c>
@@ -3996,7 +4157,10 @@
       <c r="J89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K89" s="3"/>
+      <c r="K89" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L89" s="3" t="s">
         <v>46</v>
       </c>
@@ -4021,7 +4185,10 @@
       <c r="J90" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K90" s="3"/>
+      <c r="K90" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>03--</v>
+      </c>
       <c r="L90" s="3" t="s">
         <v>56</v>
       </c>
@@ -4046,7 +4213,10 @@
       <c r="J91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K91" s="3"/>
+      <c r="K91" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L91" s="3" t="s">
         <v>13</v>
       </c>
@@ -4071,7 +4241,10 @@
       <c r="J92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K92" s="3"/>
+      <c r="K92" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L92" s="3" t="s">
         <v>142</v>
       </c>
@@ -4096,7 +4269,10 @@
       <c r="J93" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K93" s="3"/>
+      <c r="K93" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L93" s="3" t="s">
         <v>61</v>
       </c>
@@ -4121,7 +4297,10 @@
       <c r="J94" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K94" s="3"/>
+      <c r="K94" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L94" s="3" t="s">
         <v>60</v>
       </c>
@@ -4146,7 +4325,10 @@
       <c r="J95" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K95" s="3"/>
+      <c r="K95" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L95" s="3" t="s">
         <v>35</v>
       </c>
@@ -4171,7 +4353,10 @@
       <c r="J96" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="K96" s="3"/>
+      <c r="K96" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L96" s="3" t="s">
         <v>33</v>
       </c>
@@ -4196,7 +4381,10 @@
       <c r="J97" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K97" s="3"/>
+      <c r="K97" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L97" s="3" t="s">
         <v>25</v>
       </c>
@@ -4221,7 +4409,10 @@
       <c r="J98" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K98" s="3"/>
+      <c r="K98" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L98" s="3" t="s">
         <v>81</v>
       </c>
@@ -4246,7 +4437,10 @@
       <c r="J99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K99" s="3"/>
+      <c r="K99" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>04--</v>
+      </c>
       <c r="L99" s="3" t="s">
         <v>15</v>
       </c>
@@ -4271,7 +4465,10 @@
       <c r="J100" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K100" s="3"/>
+      <c r="K100" s="3" t="str">
+        <f t="shared" ref="K100:K154" si="1">+G100&amp;"-"&amp;I100</f>
+        <v>04--</v>
+      </c>
       <c r="L100" s="3" t="s">
         <v>51</v>
       </c>
@@ -4296,7 +4493,10 @@
       <c r="J101" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="3"/>
+      <c r="K101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>04--</v>
+      </c>
       <c r="L101" s="3" t="s">
         <v>40</v>
       </c>
@@ -4321,7 +4521,10 @@
       <c r="J102" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>04--</v>
+      </c>
       <c r="L102" s="3" t="s">
         <v>89</v>
       </c>
@@ -4336,7 +4539,10 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+      <c r="K103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="L103" s="3" t="s">
         <v>188</v>
       </c>
@@ -4351,7 +4557,10 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
+      <c r="K104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="L104" s="3" t="s">
         <v>200</v>
       </c>
@@ -4366,7 +4575,10 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="K105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="L105" s="3" t="s">
         <v>202</v>
       </c>
@@ -4391,7 +4603,10 @@
       <c r="J106" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K106" s="3"/>
+      <c r="K106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>10--</v>
+      </c>
       <c r="L106" s="3" t="s">
         <v>155</v>
       </c>
@@ -4417,7 +4632,7 @@
         <v>170</v>
       </c>
       <c r="K107" s="3" t="str">
-        <f>+G107&amp;"-"&amp;I107</f>
+        <f t="shared" si="1"/>
         <v>09--</v>
       </c>
       <c r="L107" s="3" t="s">
@@ -4446,7 +4661,10 @@
       <c r="J108" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K108" s="3"/>
+      <c r="K108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>09-02-</v>
+      </c>
       <c r="L108" s="3" t="s">
         <v>128</v>
       </c>
@@ -4471,7 +4689,10 @@
       <c r="J109" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K109" s="3"/>
+      <c r="K109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>09--</v>
+      </c>
       <c r="L109" s="3" t="s">
         <v>148</v>
       </c>
@@ -4496,7 +4717,10 @@
       <c r="J110" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K110" s="3"/>
+      <c r="K110" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>09--</v>
+      </c>
       <c r="L110" s="3" t="s">
         <v>149</v>
       </c>
@@ -4521,7 +4745,10 @@
       <c r="J111" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K111" s="3"/>
+      <c r="K111" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L111" s="3" t="s">
         <v>83</v>
       </c>
@@ -4546,7 +4773,10 @@
       <c r="J112" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K112" s="3"/>
+      <c r="K112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L112" s="3" t="s">
         <v>50</v>
       </c>
@@ -4571,7 +4801,10 @@
       <c r="J113" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K113" s="3"/>
+      <c r="K113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L113" s="3" t="s">
         <v>112</v>
       </c>
@@ -4596,7 +4829,10 @@
       <c r="J114" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K114" s="3"/>
+      <c r="K114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L114" s="3" t="s">
         <v>4</v>
       </c>
@@ -4621,7 +4857,10 @@
       <c r="J115" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K115" s="3"/>
+      <c r="K115" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L115" s="3" t="s">
         <v>151</v>
       </c>
@@ -4646,7 +4885,10 @@
       <c r="J116" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K116" s="3"/>
+      <c r="K116" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L116" s="3" t="s">
         <v>159</v>
       </c>
@@ -4671,7 +4913,10 @@
       <c r="J117" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K117" s="3"/>
+      <c r="K117" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L117" s="3" t="s">
         <v>163</v>
       </c>
@@ -4696,7 +4941,10 @@
       <c r="J118" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K118" s="3"/>
+      <c r="K118" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L118" s="3" t="s">
         <v>42</v>
       </c>
@@ -4721,7 +4969,10 @@
       <c r="J119" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K119" s="3"/>
+      <c r="K119" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L119" s="3" t="s">
         <v>41</v>
       </c>
@@ -4746,7 +4997,10 @@
       <c r="J120" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K120" s="3"/>
+      <c r="K120" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L120" s="3" t="s">
         <v>36</v>
       </c>
@@ -4771,7 +5025,10 @@
       <c r="J121" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K121" s="3"/>
+      <c r="K121" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L121" s="3" t="s">
         <v>75</v>
       </c>
@@ -4796,7 +5053,10 @@
       <c r="J122" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K122" s="3"/>
+      <c r="K122" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L122" s="3" t="s">
         <v>103</v>
       </c>
@@ -4821,7 +5081,10 @@
       <c r="J123" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K123" s="3"/>
+      <c r="K123" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L123" s="3" t="s">
         <v>44</v>
       </c>
@@ -4836,7 +5099,10 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
+      <c r="K124" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="L124" s="3" t="s">
         <v>203</v>
       </c>
@@ -4861,7 +5127,10 @@
       <c r="J125" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K125" s="3"/>
+      <c r="K125" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L125" s="3" t="s">
         <v>57</v>
       </c>
@@ -4886,7 +5155,10 @@
       <c r="J126" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K126" s="3"/>
+      <c r="K126" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L126" s="3" t="s">
         <v>79</v>
       </c>
@@ -4911,7 +5183,10 @@
       <c r="J127" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K127" s="3"/>
+      <c r="K127" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L127" s="3" t="s">
         <v>64</v>
       </c>
@@ -4936,7 +5211,10 @@
       <c r="J128" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K128" s="3"/>
+      <c r="K128" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L128" s="3" t="s">
         <v>74</v>
       </c>
@@ -4961,7 +5239,10 @@
       <c r="J129" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K129" s="3"/>
+      <c r="K129" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L129" s="3" t="s">
         <v>126</v>
       </c>
@@ -4986,7 +5267,10 @@
       <c r="J130" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K130" s="3"/>
+      <c r="K130" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L130" s="3" t="s">
         <v>131</v>
       </c>
@@ -5011,7 +5295,10 @@
       <c r="J131" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K131" s="3"/>
+      <c r="K131" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L131" s="3" t="s">
         <v>146</v>
       </c>
@@ -5036,7 +5323,10 @@
       <c r="J132" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="K132" s="3"/>
+      <c r="K132" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L132" s="3" t="s">
         <v>76</v>
       </c>
@@ -5061,7 +5351,10 @@
       <c r="J133" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K133" s="3"/>
+      <c r="K133" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L133" s="3" t="s">
         <v>82</v>
       </c>
@@ -5086,7 +5379,10 @@
       <c r="J134" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K134" s="3"/>
+      <c r="K134" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>06--</v>
+      </c>
       <c r="L134" s="3" t="s">
         <v>118</v>
       </c>
@@ -5111,7 +5407,10 @@
       <c r="J135" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K135" s="3"/>
+      <c r="K135" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L135" s="3" t="s">
         <v>17</v>
       </c>
@@ -5136,7 +5435,10 @@
       <c r="J136" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K136" s="3"/>
+      <c r="K136" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L136" s="3" t="s">
         <v>122</v>
       </c>
@@ -5161,7 +5463,10 @@
       <c r="J137" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K137" s="3"/>
+      <c r="K137" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L137" s="3" t="s">
         <v>162</v>
       </c>
@@ -5186,7 +5491,10 @@
       <c r="J138" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K138" s="3"/>
+      <c r="K138" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L138" s="3" t="s">
         <v>30</v>
       </c>
@@ -5211,7 +5519,10 @@
       <c r="J139" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K139" s="3"/>
+      <c r="K139" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L139" s="3" t="s">
         <v>12</v>
       </c>
@@ -5236,7 +5547,10 @@
       <c r="J140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K140" s="3"/>
+      <c r="K140" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L140" s="3" t="s">
         <v>130</v>
       </c>
@@ -5261,7 +5575,10 @@
       <c r="J141" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K141" s="3"/>
+      <c r="K141" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L141" s="3" t="s">
         <v>27</v>
       </c>
@@ -5286,7 +5603,10 @@
       <c r="J142" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K142" s="3"/>
+      <c r="K142" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L142" s="3" t="s">
         <v>77</v>
       </c>
@@ -5311,7 +5631,10 @@
       <c r="J143" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K143" s="3"/>
+      <c r="K143" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L143" s="3" t="s">
         <v>134</v>
       </c>
@@ -5336,7 +5659,10 @@
       <c r="J144" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K144" s="3"/>
+      <c r="K144" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L144" s="3" t="s">
         <v>28</v>
       </c>
@@ -5361,7 +5687,10 @@
       <c r="J145" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K145" s="3"/>
+      <c r="K145" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>07--</v>
+      </c>
       <c r="L145" s="3" t="s">
         <v>1</v>
       </c>
@@ -5386,7 +5715,10 @@
       <c r="J146" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K146" s="3"/>
+      <c r="K146" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>08--</v>
+      </c>
       <c r="L146" s="3" t="s">
         <v>157</v>
       </c>
@@ -5411,7 +5743,10 @@
       <c r="J147" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K147" s="3"/>
+      <c r="K147" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>08--</v>
+      </c>
       <c r="L147" s="3" t="s">
         <v>158</v>
       </c>
@@ -5436,7 +5771,10 @@
       <c r="J148" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="K148" s="3"/>
+      <c r="K148" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>08--</v>
+      </c>
       <c r="L148" s="3" t="s">
         <v>152</v>
       </c>
@@ -5461,7 +5799,10 @@
       <c r="J149" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K149" s="3"/>
+      <c r="K149" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>08--</v>
+      </c>
       <c r="L149" s="3" t="s">
         <v>143</v>
       </c>
@@ -5476,7 +5817,10 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
+      <c r="K150" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="L150" s="3" t="s">
         <v>207</v>
       </c>
@@ -5501,7 +5845,10 @@
       <c r="J151" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K151" s="3"/>
+      <c r="K151" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>08--</v>
+      </c>
       <c r="L151" s="3" t="s">
         <v>22</v>
       </c>
@@ -5526,7 +5873,10 @@
       <c r="J152" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K152" s="3"/>
+      <c r="K152" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>08--</v>
+      </c>
       <c r="L152" s="3" t="s">
         <v>147</v>
       </c>
@@ -5545,7 +5895,10 @@
       <c r="J153" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="K153" s="3"/>
+      <c r="K153" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
       <c r="L153" s="3" t="s">
         <v>197</v>
       </c>
@@ -5570,7 +5923,10 @@
       <c r="J154" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="K154" s="3"/>
+      <c r="K154" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>08--</v>
+      </c>
       <c r="L154" s="3" t="s">
         <v>32</v>
       </c>
